--- a/Mockup.xlsx
+++ b/Mockup.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmartin\Source\Repos\Tic_Tac_Tic_Tac_Toe_v2\Tic_Tac_Tic_Tac_Toe_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$VSC\Tic_Tac_Tic_Tac_Toe_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22460" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1" iterateCount="10" iterateDelta="1"/>
+  <calcPr calcId="171027" iterate="1" iterateCount="10" iterateDelta="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -179,6 +175,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -214,6 +227,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,15 +399,15 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="12" width="10.7109375" customWidth="1"/>
+    <col min="2" max="12" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -415,7 +445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -458,7 +488,7 @@
         <v>2,2,0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -501,7 +531,7 @@
         <v>2,2,1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -544,7 +574,7 @@
         <v>2,2,2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>A1+3</f>
         <v>3</v>
@@ -567,7 +597,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -610,7 +640,7 @@
         <v>5,2,0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -653,7 +683,7 @@
         <v>5,2,1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -696,7 +726,7 @@
         <v>5,2,2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f>A5+3</f>
         <v>6</v>
@@ -719,7 +749,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -762,7 +792,7 @@
         <v>8,2,0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -805,7 +835,7 @@
         <v>8,2,1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
